--- a/gliders.xlsx
+++ b/gliders.xlsx
@@ -2,13 +2,13 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="15" windowWidth="27825" windowHeight="8070"/>
+    <workbookView xWindow="120" yWindow="15" windowWidth="27825" windowHeight="8070" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="GenSizeCals" sheetId="1" r:id="rId1"/>
+    <sheet name="FuelEfficiencies" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="145621"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="38">
   <si>
     <t>body mass</t>
   </si>
@@ -73,6 +73,63 @@
   </si>
   <si>
     <t>https://en.m.wikipedia.org/wiki/Wing_loading</t>
+  </si>
+  <si>
+    <t>amy buy sheet</t>
+  </si>
+  <si>
+    <t>Chia Pet</t>
+  </si>
+  <si>
+    <t>thing</t>
+  </si>
+  <si>
+    <t>link</t>
+  </si>
+  <si>
+    <t>cost</t>
+  </si>
+  <si>
+    <t>3Doodler</t>
+  </si>
+  <si>
+    <t>Nail Polish</t>
+  </si>
+  <si>
+    <t>Bag</t>
+  </si>
+  <si>
+    <t>coupon</t>
+  </si>
+  <si>
+    <t>nail dotting tool</t>
+  </si>
+  <si>
+    <t>https://www.ebay.com/i/312396740600?chn=ps</t>
+  </si>
+  <si>
+    <t>detail</t>
+  </si>
+  <si>
+    <t>angels baseball rally monkey</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/Chia-Decorative-Pottery-Planter-Occasion/dp/B000AIGB96</t>
+  </si>
+  <si>
+    <t>Puppy</t>
+  </si>
+  <si>
+    <t>https://www.ebay.com/itm/3Doodler-Create-3D-Pen-With-50-Plastic-Strands-No-Mess-Non-Toxic-Smokey-Blue/163488978239?epid=12011028422&amp;hash=item2610b3d53f:g:Q~8AAOSw77pbVkqw:sc:USPSPriority!10011!US!-1:rk:1:pf:0</t>
+  </si>
+  <si>
+    <t>3d drawing pen, smokey blue, arrives Friday.</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/Sinful-Colors-10-piece-Surprise-Polish/dp/B015RR4I3A/ref=asc_df_B015RR4I3A/?tag=hyprod-20&amp;linkCode=df0&amp;hvadid=309768164628&amp;hvpos=1o2&amp;hvnetw=g&amp;hvrand=12733780413831967373&amp;hvpone=&amp;hvptwo=&amp;hvqmt=&amp;hvdev=c&amp;hvdvcmdl=&amp;hvlocint=&amp;hvlocphy=1014743&amp;hvtargid=pla-569276098489&amp;th=1</t>
+  </si>
+  <si>
+    <t>10 colors nail polish</t>
   </si>
 </sst>
 </file>
@@ -81,7 +138,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -127,7 +184,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="43" fontId="0" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
@@ -431,10 +488,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:L10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -577,12 +635,107 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <sheetPr codeName="Sheet2"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="15.25" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D3">
+        <v>8.25</v>
+      </c>
+      <c r="F3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D4">
+        <v>17.899999999999999</v>
+      </c>
+      <c r="F4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D5">
+        <v>39.950000000000003</v>
+      </c>
+      <c r="F5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D6">
+        <v>12.6</v>
+      </c>
+      <c r="F6" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B8" t="s">
+        <v>28</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -590,6 +743,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet3"/>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
